--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Sunakur Khal/SUNAKUR_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Sunakur Khal/SUNAKUR_khal_Dataprep_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -872,17 +872,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1200,11 +1200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="218788608"/>
-        <c:axId val="218790144"/>
+        <c:axId val="219319680"/>
+        <c:axId val="219325568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218788608"/>
+        <c:axId val="219319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1250,12 +1250,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218790144"/>
+        <c:crossAx val="219325568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218790144"/>
+        <c:axId val="219325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218788608"/>
+        <c:crossAx val="219319680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1578,11 +1578,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239429120"/>
-        <c:axId val="239430656"/>
+        <c:axId val="239506560"/>
+        <c:axId val="239508096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239429120"/>
+        <c:axId val="239506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1628,12 +1628,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239430656"/>
+        <c:crossAx val="239508096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239430656"/>
+        <c:axId val="239508096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239429120"/>
+        <c:crossAx val="239506560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1956,11 +1956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239538944"/>
-        <c:axId val="239540480"/>
+        <c:axId val="239525248"/>
+        <c:axId val="239621248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239538944"/>
+        <c:axId val="239525248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2006,12 +2006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239540480"/>
+        <c:crossAx val="239621248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239540480"/>
+        <c:axId val="239621248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239538944"/>
+        <c:crossAx val="239525248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2340,11 +2340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239591424"/>
-        <c:axId val="239592960"/>
+        <c:axId val="239642496"/>
+        <c:axId val="239644032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239591424"/>
+        <c:axId val="239642496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2390,12 +2390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239592960"/>
+        <c:crossAx val="239644032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239592960"/>
+        <c:axId val="239644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239591424"/>
+        <c:crossAx val="239642496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2724,11 +2724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239496192"/>
-        <c:axId val="239510272"/>
+        <c:axId val="240136576"/>
+        <c:axId val="240138112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239496192"/>
+        <c:axId val="240136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2774,12 +2774,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239510272"/>
+        <c:crossAx val="240138112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239510272"/>
+        <c:axId val="240138112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239496192"/>
+        <c:crossAx val="240136576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3096,11 +3096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239528192"/>
-        <c:axId val="238944256"/>
+        <c:axId val="240175744"/>
+        <c:axId val="240181632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239528192"/>
+        <c:axId val="240175744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3146,12 +3146,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238944256"/>
+        <c:crossAx val="240181632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238944256"/>
+        <c:axId val="240181632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239528192"/>
+        <c:crossAx val="240175744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3498,11 +3498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238978560"/>
-        <c:axId val="238980096"/>
+        <c:axId val="240206976"/>
+        <c:axId val="240208512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238978560"/>
+        <c:axId val="240206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3548,12 +3548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238980096"/>
+        <c:crossAx val="240208512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238980096"/>
+        <c:axId val="240208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238978560"/>
+        <c:crossAx val="240206976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3894,11 +3894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239026944"/>
-        <c:axId val="239028480"/>
+        <c:axId val="240250240"/>
+        <c:axId val="240067712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239026944"/>
+        <c:axId val="240250240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3944,12 +3944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239028480"/>
+        <c:crossAx val="240067712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239028480"/>
+        <c:axId val="240067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +3994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239026944"/>
+        <c:crossAx val="240250240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4314,11 +4314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239087616"/>
-        <c:axId val="239089152"/>
+        <c:axId val="240097152"/>
+        <c:axId val="240098688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239087616"/>
+        <c:axId val="240097152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4364,12 +4364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239089152"/>
+        <c:crossAx val="240098688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239089152"/>
+        <c:axId val="240098688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239087616"/>
+        <c:crossAx val="240097152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4716,11 +4716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239119744"/>
-        <c:axId val="239125632"/>
+        <c:axId val="240333568"/>
+        <c:axId val="240335104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239119744"/>
+        <c:axId val="240333568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4766,12 +4766,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239125632"/>
+        <c:crossAx val="240335104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239125632"/>
+        <c:axId val="240335104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239119744"/>
+        <c:crossAx val="240333568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5112,11 +5112,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239954560"/>
-        <c:axId val="239964544"/>
+        <c:axId val="240368640"/>
+        <c:axId val="240370432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239954560"/>
+        <c:axId val="240368640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5162,12 +5162,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239964544"/>
+        <c:crossAx val="240370432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239964544"/>
+        <c:axId val="240370432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,7 +5212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239954560"/>
+        <c:crossAx val="240368640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5604,11 +5604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238825472"/>
-        <c:axId val="238827008"/>
+        <c:axId val="238483328"/>
+        <c:axId val="238484864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238825472"/>
+        <c:axId val="238483328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5654,12 +5654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238827008"/>
+        <c:crossAx val="238484864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238827008"/>
+        <c:axId val="238484864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5704,7 +5704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238825472"/>
+        <c:crossAx val="238483328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6048,11 +6048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239991424"/>
-        <c:axId val="240009600"/>
+        <c:axId val="240384256"/>
+        <c:axId val="240402432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239991424"/>
+        <c:axId val="240384256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6098,12 +6098,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240009600"/>
+        <c:crossAx val="240402432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240009600"/>
+        <c:axId val="240402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,7 +6148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239991424"/>
+        <c:crossAx val="240384256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6498,11 +6498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238875392"/>
-        <c:axId val="238876928"/>
+        <c:axId val="239388544"/>
+        <c:axId val="239390080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238875392"/>
+        <c:axId val="239388544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6548,12 +6548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238876928"/>
+        <c:crossAx val="239390080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238876928"/>
+        <c:axId val="239390080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6598,7 +6598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238875392"/>
+        <c:crossAx val="239388544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6924,11 +6924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238774528"/>
-        <c:axId val="238784512"/>
+        <c:axId val="239284608"/>
+        <c:axId val="239286144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238774528"/>
+        <c:axId val="239284608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6974,12 +6974,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238784512"/>
+        <c:crossAx val="239286144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238784512"/>
+        <c:axId val="239286144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7024,7 +7024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238774528"/>
+        <c:crossAx val="239284608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7356,11 +7356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238812160"/>
-        <c:axId val="239145728"/>
+        <c:axId val="239319680"/>
+        <c:axId val="239325568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238812160"/>
+        <c:axId val="239319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7406,12 +7406,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239145728"/>
+        <c:crossAx val="239325568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239145728"/>
+        <c:axId val="239325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +7456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238812160"/>
+        <c:crossAx val="239319680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7806,11 +7806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239176320"/>
-        <c:axId val="239202688"/>
+        <c:axId val="239752704"/>
+        <c:axId val="239754240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239176320"/>
+        <c:axId val="239752704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7856,12 +7856,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239202688"/>
+        <c:crossAx val="239754240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239202688"/>
+        <c:axId val="239754240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7906,7 +7906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239176320"/>
+        <c:crossAx val="239752704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8226,11 +8226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239224704"/>
-        <c:axId val="239226240"/>
+        <c:axId val="239665152"/>
+        <c:axId val="239666688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239224704"/>
+        <c:axId val="239665152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8276,12 +8276,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239226240"/>
+        <c:crossAx val="239666688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239226240"/>
+        <c:axId val="239666688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8326,7 +8326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239224704"/>
+        <c:crossAx val="239665152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8628,11 +8628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239350912"/>
-        <c:axId val="239352448"/>
+        <c:axId val="239710592"/>
+        <c:axId val="239712128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239350912"/>
+        <c:axId val="239710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8678,12 +8678,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239352448"/>
+        <c:crossAx val="239712128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239352448"/>
+        <c:axId val="239712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8728,7 +8728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239350912"/>
+        <c:crossAx val="239710592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8988,11 +8988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239385216"/>
-        <c:axId val="239399296"/>
+        <c:axId val="239729280"/>
+        <c:axId val="239468928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239385216"/>
+        <c:axId val="239729280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9038,12 +9038,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239399296"/>
+        <c:crossAx val="239468928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239399296"/>
+        <c:axId val="239468928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,7 +9088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239385216"/>
+        <c:crossAx val="239729280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9162,7 +9162,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9200,7 +9200,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9238,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9276,7 +9276,7 @@
         <xdr:cNvPr id="54" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9314,7 +9314,7 @@
         <xdr:cNvPr id="55" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9352,7 +9352,7 @@
         <xdr:cNvPr id="56" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9390,7 +9390,7 @@
         <xdr:cNvPr id="57" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +9428,7 @@
         <xdr:cNvPr id="58" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9466,7 +9466,7 @@
         <xdr:cNvPr id="59" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9504,7 +9504,7 @@
         <xdr:cNvPr id="60" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9542,7 +9542,7 @@
         <xdr:cNvPr id="61" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9580,7 +9580,7 @@
         <xdr:cNvPr id="62" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9618,7 +9618,7 @@
         <xdr:cNvPr id="63" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9656,7 +9656,7 @@
         <xdr:cNvPr id="64" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9694,7 +9694,7 @@
         <xdr:cNvPr id="65" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9732,7 +9732,7 @@
         <xdr:cNvPr id="66" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9770,7 +9770,7 @@
         <xdr:cNvPr id="67" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9808,7 +9808,7 @@
         <xdr:cNvPr id="68" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9846,7 +9846,7 @@
         <xdr:cNvPr id="69" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9884,7 +9884,7 @@
         <xdr:cNvPr id="70" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9922,7 +9922,7 @@
         <xdr:cNvPr id="71" name="Group 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9941,7 +9941,7 @@
           <xdr:cNvPr id="72" name="TextBox 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10024,7 +10024,7 @@
           <xdr:cNvPr id="83" name="TextBox 82">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10093,7 +10093,7 @@
           <xdr:cNvPr id="84" name="TextBox 83">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13830,7 +13830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14242,28 +14242,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -14317,10 +14317,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <v>0</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="69"/>
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
@@ -14330,21 +14330,21 @@
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="I4" s="72" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="I4" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
@@ -14968,10 +14968,10 @@
       <c r="E19" s="62"/>
       <c r="F19" s="61"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="69"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -14996,10 +14996,10 @@
         <v>71</v>
       </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <v>0.1</v>
       </c>
-      <c r="E20" s="70"/>
+      <c r="E20" s="69"/>
       <c r="J20" s="62"/>
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
@@ -15009,24 +15009,24 @@
       <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -15862,10 +15862,10 @@
       <c r="E41" s="62"/>
       <c r="F41" s="61"/>
       <c r="G41" s="59"/>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="69"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -15890,10 +15890,10 @@
         <v>71</v>
       </c>
       <c r="C42" s="47"/>
-      <c r="D42" s="70">
+      <c r="D42" s="69">
         <v>0.2</v>
       </c>
-      <c r="E42" s="70"/>
+      <c r="E42" s="69"/>
       <c r="J42" s="62"/>
       <c r="K42" s="62"/>
       <c r="L42" s="62"/>
@@ -15906,24 +15906,24 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
@@ -16746,10 +16746,10 @@
       <c r="E67" s="62"/>
       <c r="F67" s="61"/>
       <c r="G67" s="59"/>
-      <c r="H67" s="69" t="s">
+      <c r="H67" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="69"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="59">
         <f>G66</f>
         <v>89.400999999999996</v>
@@ -16793,10 +16793,10 @@
         <v>71</v>
       </c>
       <c r="C69" s="47"/>
-      <c r="D69" s="70">
+      <c r="D69" s="69">
         <v>0.3</v>
       </c>
-      <c r="E69" s="70"/>
+      <c r="E69" s="69"/>
       <c r="J69" s="62"/>
       <c r="K69" s="62"/>
       <c r="L69" s="62"/>
@@ -17466,10 +17466,10 @@
         <v>71</v>
       </c>
       <c r="C87" s="47"/>
-      <c r="D87" s="70">
+      <c r="D87" s="69">
         <v>0.4</v>
       </c>
-      <c r="E87" s="70"/>
+      <c r="E87" s="69"/>
       <c r="J87" s="62"/>
       <c r="K87" s="62"/>
       <c r="L87" s="62"/>
@@ -18130,10 +18130,10 @@
       <c r="E103" s="62"/>
       <c r="F103" s="61"/>
       <c r="G103" s="59"/>
-      <c r="H103" s="69" t="s">
+      <c r="H103" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I103" s="69"/>
+      <c r="I103" s="71"/>
       <c r="J103" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -18158,10 +18158,10 @@
         <v>71</v>
       </c>
       <c r="C104" s="47"/>
-      <c r="D104" s="70">
+      <c r="D104" s="69">
         <v>0.5</v>
       </c>
-      <c r="E104" s="70"/>
+      <c r="E104" s="69"/>
       <c r="J104" s="62"/>
       <c r="K104" s="62"/>
       <c r="L104" s="62"/>
@@ -18882,10 +18882,10 @@
       <c r="E122" s="62"/>
       <c r="F122" s="61"/>
       <c r="G122" s="59"/>
-      <c r="H122" s="69" t="s">
+      <c r="H122" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I122" s="69"/>
+      <c r="I122" s="71"/>
       <c r="J122" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -18910,10 +18910,10 @@
         <v>71</v>
       </c>
       <c r="C123" s="47"/>
-      <c r="D123" s="70">
+      <c r="D123" s="69">
         <v>0.6</v>
       </c>
-      <c r="E123" s="70"/>
+      <c r="E123" s="69"/>
       <c r="J123" s="62"/>
       <c r="K123" s="62"/>
       <c r="L123" s="62"/>
@@ -19550,10 +19550,10 @@
       <c r="E139" s="62"/>
       <c r="F139" s="61"/>
       <c r="G139" s="59"/>
-      <c r="H139" s="69" t="s">
+      <c r="H139" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I139" s="69"/>
+      <c r="I139" s="71"/>
       <c r="J139" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -19578,10 +19578,10 @@
         <v>71</v>
       </c>
       <c r="C140" s="47"/>
-      <c r="D140" s="70">
+      <c r="D140" s="69">
         <v>0.7</v>
       </c>
-      <c r="E140" s="70"/>
+      <c r="E140" s="69"/>
       <c r="J140" s="62"/>
       <c r="K140" s="62"/>
       <c r="L140" s="62"/>
@@ -20161,10 +20161,10 @@
         <v>71</v>
       </c>
       <c r="C156" s="47"/>
-      <c r="D156" s="70">
+      <c r="D156" s="69">
         <v>0.8</v>
       </c>
-      <c r="E156" s="70"/>
+      <c r="E156" s="69"/>
       <c r="J156" s="62"/>
       <c r="K156" s="62"/>
       <c r="L156" s="62"/>
@@ -20578,10 +20578,10 @@
       <c r="E168" s="62"/>
       <c r="F168" s="61"/>
       <c r="G168" s="59"/>
-      <c r="H168" s="69" t="s">
+      <c r="H168" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I168" s="69"/>
+      <c r="I168" s="71"/>
       <c r="J168" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -20606,10 +20606,10 @@
         <v>71</v>
       </c>
       <c r="C169" s="47"/>
-      <c r="D169" s="70">
+      <c r="D169" s="69">
         <v>0.9</v>
       </c>
-      <c r="E169" s="70"/>
+      <c r="E169" s="69"/>
       <c r="J169" s="62"/>
       <c r="K169" s="62"/>
       <c r="L169" s="62"/>
@@ -21101,10 +21101,10 @@
         <v>71</v>
       </c>
       <c r="C183" s="47"/>
-      <c r="D183" s="70">
+      <c r="D183" s="69">
         <v>1</v>
       </c>
-      <c r="E183" s="70"/>
+      <c r="E183" s="69"/>
       <c r="J183" s="62"/>
       <c r="K183" s="62"/>
       <c r="L183" s="62"/>
@@ -21577,10 +21577,10 @@
         <v>71</v>
       </c>
       <c r="C196" s="47"/>
-      <c r="D196" s="70">
+      <c r="D196" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E196" s="70"/>
+      <c r="E196" s="69"/>
       <c r="J196" s="62"/>
       <c r="K196" s="62"/>
       <c r="L196" s="62"/>
@@ -22085,10 +22085,10 @@
       <c r="E210" s="62"/>
       <c r="F210" s="61"/>
       <c r="G210" s="59"/>
-      <c r="H210" s="69" t="s">
+      <c r="H210" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I210" s="69"/>
+      <c r="I210" s="71"/>
       <c r="J210" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -22112,10 +22112,10 @@
         <v>71</v>
       </c>
       <c r="C211" s="47"/>
-      <c r="D211" s="70">
+      <c r="D211" s="69">
         <v>1.3</v>
       </c>
-      <c r="E211" s="70"/>
+      <c r="E211" s="69"/>
       <c r="J211" s="62"/>
       <c r="K211" s="62"/>
       <c r="L211" s="62"/>
@@ -22125,24 +22125,24 @@
       <c r="P211" s="23"/>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B212" s="72" t="s">
+      <c r="B212" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="70"/>
+      <c r="F212" s="70"/>
+      <c r="G212" s="70"/>
       <c r="H212" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I212" s="72" t="s">
+      <c r="I212" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J212" s="72"/>
-      <c r="K212" s="72"/>
-      <c r="L212" s="72"/>
-      <c r="M212" s="72"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="70"/>
+      <c r="M212" s="70"/>
       <c r="N212" s="24"/>
       <c r="O212" s="24"/>
       <c r="P212" s="26">
@@ -22661,10 +22661,10 @@
         <v>71</v>
       </c>
       <c r="C227" s="47"/>
-      <c r="D227" s="70">
+      <c r="D227" s="69">
         <v>1.4</v>
       </c>
-      <c r="E227" s="70"/>
+      <c r="E227" s="69"/>
       <c r="J227" s="62"/>
       <c r="K227" s="62"/>
       <c r="L227" s="62"/>
@@ -22674,24 +22674,24 @@
       <c r="P227" s="23"/>
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B228" s="72" t="s">
+      <c r="B228" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C228" s="72"/>
-      <c r="D228" s="72"/>
-      <c r="E228" s="72"/>
-      <c r="F228" s="72"/>
-      <c r="G228" s="72"/>
+      <c r="C228" s="70"/>
+      <c r="D228" s="70"/>
+      <c r="E228" s="70"/>
+      <c r="F228" s="70"/>
+      <c r="G228" s="70"/>
       <c r="H228" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I228" s="72" t="s">
+      <c r="I228" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J228" s="72"/>
-      <c r="K228" s="72"/>
-      <c r="L228" s="72"/>
-      <c r="M228" s="72"/>
+      <c r="J228" s="70"/>
+      <c r="K228" s="70"/>
+      <c r="L228" s="70"/>
+      <c r="M228" s="70"/>
       <c r="N228" s="24"/>
       <c r="O228" s="24"/>
       <c r="P228" s="26">
@@ -23152,10 +23152,10 @@
       <c r="E241" s="62"/>
       <c r="F241" s="61"/>
       <c r="G241" s="59"/>
-      <c r="H241" s="69" t="s">
+      <c r="H241" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I241" s="69"/>
+      <c r="I241" s="71"/>
       <c r="J241" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -23180,10 +23180,10 @@
         <v>71</v>
       </c>
       <c r="C242" s="47"/>
-      <c r="D242" s="70">
+      <c r="D242" s="69">
         <v>1.5</v>
       </c>
-      <c r="E242" s="70"/>
+      <c r="E242" s="69"/>
       <c r="J242" s="62"/>
       <c r="K242" s="62"/>
       <c r="L242" s="62"/>
@@ -23193,24 +23193,24 @@
       <c r="P242" s="23"/>
     </row>
     <row r="243" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B243" s="72" t="s">
+      <c r="B243" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-      <c r="E243" s="72"/>
-      <c r="F243" s="72"/>
-      <c r="G243" s="72"/>
+      <c r="C243" s="70"/>
+      <c r="D243" s="70"/>
+      <c r="E243" s="70"/>
+      <c r="F243" s="70"/>
+      <c r="G243" s="70"/>
       <c r="H243" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I243" s="72" t="s">
+      <c r="I243" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J243" s="72"/>
-      <c r="K243" s="72"/>
-      <c r="L243" s="72"/>
-      <c r="M243" s="72"/>
+      <c r="J243" s="70"/>
+      <c r="K243" s="70"/>
+      <c r="L243" s="70"/>
+      <c r="M243" s="70"/>
       <c r="N243" s="24"/>
       <c r="O243" s="24"/>
       <c r="P243" s="26" t="e">
@@ -23766,10 +23766,10 @@
         <v>71</v>
       </c>
       <c r="C258" s="47"/>
-      <c r="D258" s="70">
+      <c r="D258" s="69">
         <v>1.6</v>
       </c>
-      <c r="E258" s="70"/>
+      <c r="E258" s="69"/>
       <c r="J258" s="62"/>
       <c r="K258" s="62"/>
       <c r="L258" s="62"/>
@@ -23779,24 +23779,24 @@
       <c r="P258" s="23"/>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B259" s="72" t="s">
+      <c r="B259" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C259" s="72"/>
-      <c r="D259" s="72"/>
-      <c r="E259" s="72"/>
-      <c r="F259" s="72"/>
-      <c r="G259" s="72"/>
+      <c r="C259" s="70"/>
+      <c r="D259" s="70"/>
+      <c r="E259" s="70"/>
+      <c r="F259" s="70"/>
+      <c r="G259" s="70"/>
       <c r="H259" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I259" s="72" t="s">
+      <c r="I259" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="J259" s="72"/>
-      <c r="K259" s="72"/>
-      <c r="L259" s="72"/>
-      <c r="M259" s="72"/>
+      <c r="J259" s="70"/>
+      <c r="K259" s="70"/>
+      <c r="L259" s="70"/>
+      <c r="M259" s="70"/>
       <c r="N259" s="24"/>
       <c r="O259" s="24"/>
       <c r="P259" s="26" t="e">
@@ -24497,10 +24497,10 @@
         <v>71</v>
       </c>
       <c r="C282" s="47"/>
-      <c r="D282" s="70">
+      <c r="D282" s="69">
         <v>1.7</v>
       </c>
-      <c r="E282" s="70"/>
+      <c r="E282" s="69"/>
       <c r="J282" s="62"/>
       <c r="K282" s="62"/>
       <c r="L282" s="62"/>
@@ -25146,10 +25146,10 @@
         <v>71</v>
       </c>
       <c r="C299" s="47"/>
-      <c r="D299" s="70">
+      <c r="D299" s="69">
         <v>1.8</v>
       </c>
-      <c r="E299" s="70"/>
+      <c r="E299" s="69"/>
       <c r="J299" s="62"/>
       <c r="K299" s="62"/>
       <c r="L299" s="62"/>
@@ -25689,10 +25689,10 @@
         <v>71</v>
       </c>
       <c r="C314" s="47"/>
-      <c r="D314" s="70">
+      <c r="D314" s="69">
         <v>1.9</v>
       </c>
-      <c r="E314" s="70"/>
+      <c r="E314" s="69"/>
       <c r="J314" s="62"/>
       <c r="K314" s="62"/>
       <c r="L314" s="62"/>
@@ -26235,10 +26235,10 @@
         <v>71</v>
       </c>
       <c r="C329" s="47"/>
-      <c r="D329" s="70">
+      <c r="D329" s="69">
         <v>1.93</v>
       </c>
-      <c r="E329" s="70"/>
+      <c r="E329" s="69"/>
       <c r="J329" s="62"/>
       <c r="K329" s="62"/>
       <c r="L329" s="62"/>
@@ -42361,34 +42361,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="B243:G243"/>
-    <mergeCell ref="I243:M243"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="I259:M259"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="B228:G228"/>
-    <mergeCell ref="I228:M228"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="I212:M212"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="D104:E104"/>
     <mergeCell ref="H168:I168"/>
     <mergeCell ref="D169:E169"/>
     <mergeCell ref="A1:T1"/>
@@ -42405,6 +42377,34 @@
     <mergeCell ref="I43:M43"/>
     <mergeCell ref="H122:I122"/>
     <mergeCell ref="D123:E123"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="I212:M212"/>
+    <mergeCell ref="I243:M243"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="I259:M259"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="B228:G228"/>
+    <mergeCell ref="I228:M228"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="B243:G243"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -42460,8 +42460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42539,7 +42539,7 @@
         <v>126</v>
       </c>
       <c r="H2" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I2" s="3">
         <v>-1.6</v>
@@ -42577,7 +42577,7 @@
         <v>126</v>
       </c>
       <c r="H3" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I3" s="3">
         <v>-1.6</v>
@@ -42615,7 +42615,7 @@
         <v>126</v>
       </c>
       <c r="H4" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I4" s="3">
         <v>-1.6</v>
@@ -42653,7 +42653,7 @@
         <v>126</v>
       </c>
       <c r="H5" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I5" s="3">
         <v>-1.6</v>
@@ -42691,7 +42691,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I6" s="3">
         <v>-1.6</v>
@@ -42729,7 +42729,7 @@
         <v>126</v>
       </c>
       <c r="H7" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I7" s="3">
         <v>-1.6</v>
@@ -42767,7 +42767,7 @@
         <v>126</v>
       </c>
       <c r="H8" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I8" s="3">
         <v>-1.6</v>
@@ -42805,7 +42805,7 @@
         <v>126</v>
       </c>
       <c r="H9" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I9" s="3">
         <v>-1.6</v>
@@ -42843,7 +42843,7 @@
         <v>126</v>
       </c>
       <c r="H10" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I10" s="3">
         <v>-1.6</v>
@@ -42881,7 +42881,7 @@
         <v>126</v>
       </c>
       <c r="H11" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I11" s="3">
         <v>-1.6</v>
@@ -42919,7 +42919,7 @@
         <v>126</v>
       </c>
       <c r="H12" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I12" s="3">
         <v>-1.6</v>
@@ -42957,7 +42957,7 @@
         <v>126</v>
       </c>
       <c r="H13" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I13" s="3">
         <v>-1.6</v>
@@ -42995,7 +42995,7 @@
         <v>126</v>
       </c>
       <c r="H14" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I14" s="3">
         <v>-1.6</v>
@@ -43033,7 +43033,7 @@
         <v>126</v>
       </c>
       <c r="H15" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I15" s="3">
         <v>-1.6</v>
@@ -43071,7 +43071,7 @@
         <v>126</v>
       </c>
       <c r="H16" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I16" s="3">
         <v>-1.6</v>
@@ -43109,7 +43109,7 @@
         <v>126</v>
       </c>
       <c r="H17" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I17" s="3">
         <v>-1.6</v>
@@ -43147,7 +43147,7 @@
         <v>126</v>
       </c>
       <c r="H18" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I18" s="3">
         <v>-1.6</v>
@@ -43185,7 +43185,7 @@
         <v>126</v>
       </c>
       <c r="H19" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I19" s="3">
         <v>-1.6</v>
@@ -43223,7 +43223,7 @@
         <v>126</v>
       </c>
       <c r="H20" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I20" s="3">
         <v>-1.6</v>
@@ -43261,7 +43261,7 @@
         <v>126</v>
       </c>
       <c r="H21" s="3">
-        <v>0.40200000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="I21" s="3">
         <v>-1.6</v>
@@ -43594,7 +43594,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43640,7 +43640,7 @@
         <v>149</v>
       </c>
       <c r="B2" s="6">
-        <v>-1.6</v>
+        <v>-0.33</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
@@ -43884,7 +43884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Sunakur Khal/SUNAKUR_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Sunakur Khal/SUNAKUR_khal_Dataprep_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>SW_HMP_01</t>
   </si>
   <si>
     <t>Data</t>
@@ -494,7 +491,22 @@
     <t>Re-excavation of Sunakur Khal from km. 0.000 to km. 1.930 in polder -1  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
   </si>
   <si>
-    <t>Sunakur khal</t>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>TP_KEX_10_14</t>
+  </si>
+  <si>
+    <t>package_name_of_khal</t>
+  </si>
+  <si>
+    <t>Data written vertically</t>
+  </si>
+  <si>
+    <t>Long_Slope_Direction</t>
+  </si>
+  <si>
+    <t>1:zero chaiange at outfall 0:zero chainage at origin</t>
   </si>
 </sst>
 </file>
@@ -692,7 +704,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -872,17 +884,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1200,11 +1215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219319680"/>
-        <c:axId val="219325568"/>
+        <c:axId val="148481536"/>
+        <c:axId val="148483072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219319680"/>
+        <c:axId val="148481536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1250,12 +1265,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219325568"/>
+        <c:crossAx val="148483072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219325568"/>
+        <c:axId val="148483072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219319680"/>
+        <c:crossAx val="148481536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1578,11 +1593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239506560"/>
-        <c:axId val="239508096"/>
+        <c:axId val="149572608"/>
+        <c:axId val="149594880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239506560"/>
+        <c:axId val="149572608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1628,12 +1643,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239508096"/>
+        <c:crossAx val="149594880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239508096"/>
+        <c:axId val="149594880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239506560"/>
+        <c:crossAx val="149572608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1956,11 +1971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239525248"/>
-        <c:axId val="239621248"/>
+        <c:axId val="149620224"/>
+        <c:axId val="149621760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239525248"/>
+        <c:axId val="149620224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2006,12 +2021,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239621248"/>
+        <c:crossAx val="149621760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239621248"/>
+        <c:axId val="149621760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239525248"/>
+        <c:crossAx val="149620224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2340,11 +2355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239642496"/>
-        <c:axId val="239644032"/>
+        <c:axId val="149655552"/>
+        <c:axId val="149657088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239642496"/>
+        <c:axId val="149655552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2390,12 +2405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239644032"/>
+        <c:crossAx val="149657088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239644032"/>
+        <c:axId val="149657088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239642496"/>
+        <c:crossAx val="149655552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2724,11 +2739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240136576"/>
-        <c:axId val="240138112"/>
+        <c:axId val="149760256"/>
+        <c:axId val="149770240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240136576"/>
+        <c:axId val="149760256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2774,12 +2789,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240138112"/>
+        <c:crossAx val="149770240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240138112"/>
+        <c:axId val="149770240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240136576"/>
+        <c:crossAx val="149760256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3096,11 +3111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240175744"/>
-        <c:axId val="240181632"/>
+        <c:axId val="149807872"/>
+        <c:axId val="149809408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240175744"/>
+        <c:axId val="149807872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3146,12 +3161,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240181632"/>
+        <c:crossAx val="149809408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240181632"/>
+        <c:axId val="149809408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240175744"/>
+        <c:crossAx val="149807872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3498,11 +3513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240206976"/>
-        <c:axId val="240208512"/>
+        <c:axId val="149838848"/>
+        <c:axId val="149844736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240206976"/>
+        <c:axId val="149838848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3548,12 +3563,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240208512"/>
+        <c:crossAx val="149844736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240208512"/>
+        <c:axId val="149844736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240206976"/>
+        <c:crossAx val="149838848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3894,11 +3909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240250240"/>
-        <c:axId val="240067712"/>
+        <c:axId val="149874176"/>
+        <c:axId val="149875712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240250240"/>
+        <c:axId val="149874176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3944,12 +3959,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240067712"/>
+        <c:crossAx val="149875712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240067712"/>
+        <c:axId val="149875712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +4009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240250240"/>
+        <c:crossAx val="149874176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4314,11 +4329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240097152"/>
-        <c:axId val="240098688"/>
+        <c:axId val="149975040"/>
+        <c:axId val="149976576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240097152"/>
+        <c:axId val="149975040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4364,12 +4379,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240098688"/>
+        <c:crossAx val="149976576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240098688"/>
+        <c:axId val="149976576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240097152"/>
+        <c:crossAx val="149975040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4716,11 +4731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240333568"/>
-        <c:axId val="240335104"/>
+        <c:axId val="150010112"/>
+        <c:axId val="150020096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240333568"/>
+        <c:axId val="150010112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4766,12 +4781,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240335104"/>
+        <c:crossAx val="150020096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240335104"/>
+        <c:axId val="150020096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240333568"/>
+        <c:crossAx val="150010112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5112,11 +5127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240368640"/>
-        <c:axId val="240370432"/>
+        <c:axId val="150045440"/>
+        <c:axId val="150046976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240368640"/>
+        <c:axId val="150045440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5162,12 +5177,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240370432"/>
+        <c:crossAx val="150046976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240370432"/>
+        <c:axId val="150046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,7 +5227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240368640"/>
+        <c:crossAx val="150045440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5604,11 +5619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238483328"/>
-        <c:axId val="238484864"/>
+        <c:axId val="149032960"/>
+        <c:axId val="149034496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238483328"/>
+        <c:axId val="149032960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5654,12 +5669,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238484864"/>
+        <c:crossAx val="149034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238484864"/>
+        <c:axId val="149034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5704,7 +5719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238483328"/>
+        <c:crossAx val="149032960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6048,11 +6063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240384256"/>
-        <c:axId val="240402432"/>
+        <c:axId val="150081536"/>
+        <c:axId val="150083072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240384256"/>
+        <c:axId val="150081536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6098,12 +6113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240402432"/>
+        <c:crossAx val="150083072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240402432"/>
+        <c:axId val="150083072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,7 +6163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240384256"/>
+        <c:crossAx val="150081536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6498,11 +6513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239388544"/>
-        <c:axId val="239390080"/>
+        <c:axId val="149061632"/>
+        <c:axId val="149063168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239388544"/>
+        <c:axId val="149061632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6548,12 +6563,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239390080"/>
+        <c:crossAx val="149063168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239390080"/>
+        <c:axId val="149063168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6598,7 +6613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239388544"/>
+        <c:crossAx val="149061632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6924,11 +6939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239284608"/>
-        <c:axId val="239286144"/>
+        <c:axId val="149299968"/>
+        <c:axId val="149301504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239284608"/>
+        <c:axId val="149299968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6974,12 +6989,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239286144"/>
+        <c:crossAx val="149301504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239286144"/>
+        <c:axId val="149301504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7024,7 +7039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239284608"/>
+        <c:crossAx val="149299968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7356,11 +7371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239319680"/>
-        <c:axId val="239325568"/>
+        <c:axId val="149335040"/>
+        <c:axId val="149340928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239319680"/>
+        <c:axId val="149335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7406,12 +7421,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239325568"/>
+        <c:crossAx val="149340928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239325568"/>
+        <c:axId val="149340928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +7471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239319680"/>
+        <c:crossAx val="149335040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7806,11 +7821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239752704"/>
-        <c:axId val="239754240"/>
+        <c:axId val="149374464"/>
+        <c:axId val="149376000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239752704"/>
+        <c:axId val="149374464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7856,12 +7871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239754240"/>
+        <c:crossAx val="149376000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239754240"/>
+        <c:axId val="149376000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7906,7 +7921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239752704"/>
+        <c:crossAx val="149374464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8226,11 +8241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239665152"/>
-        <c:axId val="239666688"/>
+        <c:axId val="149413888"/>
+        <c:axId val="149415424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239665152"/>
+        <c:axId val="149413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8276,12 +8291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239666688"/>
+        <c:crossAx val="149415424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239666688"/>
+        <c:axId val="149415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8326,7 +8341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239665152"/>
+        <c:crossAx val="149413888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8628,11 +8643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239710592"/>
-        <c:axId val="239712128"/>
+        <c:axId val="149506304"/>
+        <c:axId val="149508096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239710592"/>
+        <c:axId val="149506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8678,12 +8693,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239712128"/>
+        <c:crossAx val="149508096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239712128"/>
+        <c:axId val="149508096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8728,7 +8743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239710592"/>
+        <c:crossAx val="149506304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8988,11 +9003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239729280"/>
-        <c:axId val="239468928"/>
+        <c:axId val="149549824"/>
+        <c:axId val="149551360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239729280"/>
+        <c:axId val="149549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9038,12 +9053,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239468928"/>
+        <c:crossAx val="149551360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239468928"/>
+        <c:axId val="149551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,7 +9103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239729280"/>
+        <c:crossAx val="149549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9162,7 +9177,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9200,7 +9215,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9253,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9276,7 +9291,7 @@
         <xdr:cNvPr id="54" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9314,7 +9329,7 @@
         <xdr:cNvPr id="55" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9352,7 +9367,7 @@
         <xdr:cNvPr id="56" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9390,7 +9405,7 @@
         <xdr:cNvPr id="57" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +9443,7 @@
         <xdr:cNvPr id="58" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9466,7 +9481,7 @@
         <xdr:cNvPr id="59" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9504,7 +9519,7 @@
         <xdr:cNvPr id="60" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42221F1C-7ADF-4D1C-AC06-1A67A1F0F9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9542,7 +9557,7 @@
         <xdr:cNvPr id="61" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BFDBF-7AB7-4948-867C-8DF247FF4400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9580,7 +9595,7 @@
         <xdr:cNvPr id="62" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F522DB-5C69-439F-9B63-120A004F2731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9618,7 +9633,7 @@
         <xdr:cNvPr id="63" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54B737-F1C4-4BB8-A1F0-48ECF1D8605B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9656,7 +9671,7 @@
         <xdr:cNvPr id="64" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D740B78-EE60-4937-AE70-03110307A857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9694,7 +9709,7 @@
         <xdr:cNvPr id="65" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C40603-DAED-45E1-8C63-A48698D89A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9732,7 +9747,7 @@
         <xdr:cNvPr id="66" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C1D77C1-CFFA-4BF9-A191-836028D36BD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9770,7 +9785,7 @@
         <xdr:cNvPr id="67" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B11E40-F5BD-4EC4-AFC5-8785129AB0F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9808,7 +9823,7 @@
         <xdr:cNvPr id="68" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEB865F-A69D-41FE-8A3D-5F3A5A5D9D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9846,7 +9861,7 @@
         <xdr:cNvPr id="69" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB53F7A3-4524-45F4-B0BA-68C8E1838746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9884,7 +9899,7 @@
         <xdr:cNvPr id="70" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206592A-4128-48DE-8946-3B281553DA66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9922,7 +9937,7 @@
         <xdr:cNvPr id="71" name="Group 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE4878-CC56-470A-9B9D-FD4996521DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9941,7 +9956,7 @@
           <xdr:cNvPr id="72" name="TextBox 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF35CAEB-0C36-41F5-AA49-7A0D4ED51606}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10024,7 +10039,7 @@
           <xdr:cNvPr id="83" name="TextBox 82">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DDD3F8-9874-45F0-BBAD-6EA54FF9CED0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10093,7 +10108,7 @@
           <xdr:cNvPr id="84" name="TextBox 83">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0D14CD-651F-419F-BE17-C913281EC4CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13830,7 +13845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13840,7 +13855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2964"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A301" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A330" sqref="A330:XFD330"/>
     </sheetView>
   </sheetViews>
@@ -14242,65 +14257,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="A1" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="F2" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>118</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="K2" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="62" t="s">
         <v>117</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>118</v>
       </c>
       <c r="N2" s="62"/>
       <c r="O2" s="62"/>
@@ -14314,13 +14329,13 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="69">
+      <c r="D3" s="70">
         <v>0</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
@@ -14330,21 +14345,21 @@
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="I4" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="I4" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
@@ -14357,7 +14372,7 @@
         <v>3.9580000000000002</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
@@ -14923,7 +14938,7 @@
         <v>2.7360000000000002</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="59">
         <f t="shared" si="0"/>
@@ -14968,16 +14983,16 @@
       <c r="E19" s="62"/>
       <c r="F19" s="61"/>
       <c r="G19" s="59"/>
-      <c r="H19" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="71"/>
+      <c r="H19" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="69"/>
       <c r="J19" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="61" t="e">
         <f>#REF!</f>
@@ -14993,13 +15008,13 @@
     </row>
     <row r="20" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="47"/>
-      <c r="D20" s="69">
+      <c r="D20" s="70">
         <v>0.1</v>
       </c>
-      <c r="E20" s="69"/>
+      <c r="E20" s="70"/>
       <c r="J20" s="62"/>
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
@@ -15009,24 +15024,24 @@
       <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="B21" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -15039,7 +15054,7 @@
         <v>1.2390000000000001</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
@@ -15099,7 +15114,7 @@
         <v>3.9260000000000002</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="59">
         <f t="shared" ref="E24:E40" si="8">(C23+C24)/2</f>
@@ -15820,7 +15835,7 @@
         <v>2.9140000000000001</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="59">
         <f t="shared" si="8"/>
@@ -15862,16 +15877,16 @@
       <c r="E41" s="62"/>
       <c r="F41" s="61"/>
       <c r="G41" s="59"/>
-      <c r="H41" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" s="71"/>
+      <c r="H41" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="69"/>
       <c r="J41" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K41" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L41" s="61" t="e">
         <f>#REF!</f>
@@ -15887,13 +15902,13 @@
     </row>
     <row r="42" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="47"/>
-      <c r="D42" s="69">
+      <c r="D42" s="70">
         <v>0.2</v>
       </c>
-      <c r="E42" s="69"/>
+      <c r="E42" s="70"/>
       <c r="J42" s="62"/>
       <c r="K42" s="62"/>
       <c r="L42" s="62"/>
@@ -15906,24 +15921,24 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="B43" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
       <c r="H43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
@@ -15936,7 +15951,7 @@
         <v>3.851</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="61"/>
@@ -16609,7 +16624,7 @@
         <v>3.1509999999999998</v>
       </c>
       <c r="D61" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" s="59">
         <f t="shared" si="16"/>
@@ -16746,16 +16761,16 @@
       <c r="E67" s="62"/>
       <c r="F67" s="61"/>
       <c r="G67" s="59"/>
-      <c r="H67" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I67" s="71"/>
+      <c r="H67" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="69"/>
       <c r="J67" s="59">
         <f>G66</f>
         <v>89.400999999999996</v>
       </c>
       <c r="K67" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L67" s="61">
         <f>M64</f>
@@ -16790,13 +16805,13 @@
     </row>
     <row r="69" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="47"/>
-      <c r="D69" s="69">
+      <c r="D69" s="70">
         <v>0.3</v>
       </c>
-      <c r="E69" s="69"/>
+      <c r="E69" s="70"/>
       <c r="J69" s="62"/>
       <c r="K69" s="62"/>
       <c r="L69" s="62"/>
@@ -16816,7 +16831,7 @@
         <v>3.9860000000000002</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="61"/>
       <c r="F70" s="61"/>
@@ -17405,7 +17420,7 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="D85" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E85" s="59">
         <f t="shared" si="24"/>
@@ -17463,13 +17478,13 @@
     </row>
     <row r="87" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="47"/>
-      <c r="D87" s="69">
+      <c r="D87" s="70">
         <v>0.4</v>
       </c>
-      <c r="E87" s="69"/>
+      <c r="E87" s="70"/>
       <c r="J87" s="62"/>
       <c r="K87" s="62"/>
       <c r="L87" s="62"/>
@@ -17486,7 +17501,7 @@
         <v>3.032</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E88" s="61"/>
       <c r="F88" s="61"/>
@@ -18021,7 +18036,7 @@
         <v>3.931</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="59">
         <f t="shared" si="35"/>
@@ -18098,7 +18113,7 @@
         <v>2.7949999999999999</v>
       </c>
       <c r="D102" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E102" s="59">
         <f t="shared" si="35"/>
@@ -18130,16 +18145,16 @@
       <c r="E103" s="62"/>
       <c r="F103" s="61"/>
       <c r="G103" s="59"/>
-      <c r="H103" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I103" s="71"/>
+      <c r="H103" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="69"/>
       <c r="J103" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K103" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L103" s="61" t="e">
         <f>#REF!</f>
@@ -18155,13 +18170,13 @@
     </row>
     <row r="104" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C104" s="47"/>
-      <c r="D104" s="69">
+      <c r="D104" s="70">
         <v>0.5</v>
       </c>
-      <c r="E104" s="69"/>
+      <c r="E104" s="70"/>
       <c r="J104" s="62"/>
       <c r="K104" s="62"/>
       <c r="L104" s="62"/>
@@ -18178,7 +18193,7 @@
         <v>2.177</v>
       </c>
       <c r="D105" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E105" s="61"/>
       <c r="F105" s="61"/>
@@ -18202,7 +18217,7 @@
         <v>2.1920000000000002</v>
       </c>
       <c r="D106" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E106" s="59">
         <f>(C105+C106)/2</f>
@@ -18751,7 +18766,7 @@
         <v>4.0910000000000002</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E119" s="59">
         <f t="shared" si="40"/>
@@ -18840,7 +18855,7 @@
         <v>3.1760000000000002</v>
       </c>
       <c r="D121" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E121" s="59">
         <f t="shared" si="40"/>
@@ -18882,16 +18897,16 @@
       <c r="E122" s="62"/>
       <c r="F122" s="61"/>
       <c r="G122" s="59"/>
-      <c r="H122" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I122" s="71"/>
+      <c r="H122" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I122" s="69"/>
       <c r="J122" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K122" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L122" s="61" t="e">
         <f>#REF!</f>
@@ -18907,13 +18922,13 @@
     </row>
     <row r="123" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B123" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C123" s="47"/>
-      <c r="D123" s="69">
+      <c r="D123" s="70">
         <v>0.6</v>
       </c>
-      <c r="E123" s="69"/>
+      <c r="E123" s="70"/>
       <c r="J123" s="62"/>
       <c r="K123" s="62"/>
       <c r="L123" s="62"/>
@@ -18930,7 +18945,7 @@
         <v>1.9419999999999999</v>
       </c>
       <c r="D124" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E124" s="61"/>
       <c r="F124" s="61"/>
@@ -19003,7 +19018,7 @@
         <v>4.1740000000000004</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E126" s="59">
         <f t="shared" ref="E126:E138" si="51">(C125+C126)/2</f>
@@ -19485,7 +19500,7 @@
         <v>3.4279999999999999</v>
       </c>
       <c r="D137" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E137" s="59">
         <f t="shared" si="51"/>
@@ -19518,7 +19533,7 @@
         <v>3.4329999999999998</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E138" s="59">
         <f t="shared" si="51"/>
@@ -19550,16 +19565,16 @@
       <c r="E139" s="62"/>
       <c r="F139" s="61"/>
       <c r="G139" s="59"/>
-      <c r="H139" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I139" s="71"/>
+      <c r="H139" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139" s="69"/>
       <c r="J139" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K139" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L139" s="61" t="e">
         <f>#REF!</f>
@@ -19575,13 +19590,13 @@
     </row>
     <row r="140" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B140" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C140" s="47"/>
-      <c r="D140" s="69">
+      <c r="D140" s="70">
         <v>0.7</v>
       </c>
-      <c r="E140" s="69"/>
+      <c r="E140" s="70"/>
       <c r="J140" s="62"/>
       <c r="K140" s="62"/>
       <c r="L140" s="62"/>
@@ -19598,7 +19613,7 @@
         <v>3.3690000000000002</v>
       </c>
       <c r="D141" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="61"/>
       <c r="F141" s="61"/>
@@ -20054,7 +20069,7 @@
         <v>3.7810000000000001</v>
       </c>
       <c r="D153" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E153" s="59">
         <f t="shared" si="56"/>
@@ -20101,7 +20116,7 @@
         <v>3.7930000000000001</v>
       </c>
       <c r="D154" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E154" s="59">
         <f t="shared" si="56"/>
@@ -20158,13 +20173,13 @@
     </row>
     <row r="156" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B156" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C156" s="47"/>
-      <c r="D156" s="69">
+      <c r="D156" s="70">
         <v>0.8</v>
       </c>
-      <c r="E156" s="69"/>
+      <c r="E156" s="70"/>
       <c r="J156" s="62"/>
       <c r="K156" s="62"/>
       <c r="L156" s="62"/>
@@ -20181,7 +20196,7 @@
         <v>2.9790000000000001</v>
       </c>
       <c r="D157" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E157" s="61"/>
       <c r="F157" s="61"/>
@@ -20530,7 +20545,7 @@
         <v>3.1890000000000001</v>
       </c>
       <c r="D167" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E167" s="59">
         <f t="shared" si="64"/>
@@ -20578,16 +20593,16 @@
       <c r="E168" s="62"/>
       <c r="F168" s="61"/>
       <c r="G168" s="59"/>
-      <c r="H168" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I168" s="71"/>
+      <c r="H168" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168" s="69"/>
       <c r="J168" s="59" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K168" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L168" s="61" t="e">
         <f>#REF!</f>
@@ -20603,13 +20618,13 @@
     </row>
     <row r="169" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B169" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C169" s="47"/>
-      <c r="D169" s="69">
+      <c r="D169" s="70">
         <v>0.9</v>
       </c>
-      <c r="E169" s="69"/>
+      <c r="E169" s="70"/>
       <c r="J169" s="62"/>
       <c r="K169" s="62"/>
       <c r="L169" s="62"/>
@@ -20626,7 +20641,7 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="D170" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E170" s="61"/>
       <c r="F170" s="61"/>
@@ -21037,7 +21052,7 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="D181" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E181" s="59">
         <f t="shared" si="70"/>
@@ -21098,13 +21113,13 @@
     </row>
     <row r="183" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B183" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C183" s="47"/>
-      <c r="D183" s="69">
+      <c r="D183" s="70">
         <v>1</v>
       </c>
-      <c r="E183" s="69"/>
+      <c r="E183" s="70"/>
       <c r="J183" s="62"/>
       <c r="K183" s="62"/>
       <c r="L183" s="62"/>
@@ -21121,7 +21136,7 @@
         <v>3.294</v>
       </c>
       <c r="D184" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E184" s="61"/>
       <c r="F184" s="61"/>
@@ -21533,7 +21548,7 @@
         <v>3.085</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E195" s="59">
         <f t="shared" si="76"/>
@@ -21574,13 +21589,13 @@
     </row>
     <row r="196" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B196" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C196" s="47"/>
-      <c r="D196" s="69">
+      <c r="D196" s="70">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E196" s="69"/>
+      <c r="E196" s="70"/>
       <c r="J196" s="62"/>
       <c r="K196" s="62"/>
       <c r="L196" s="62"/>
@@ -21597,7 +21612,7 @@
         <v>2.9889999999999999</v>
       </c>
       <c r="D197" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E197" s="61"/>
       <c r="F197" s="61"/>
@@ -22038,7 +22053,7 @@
         <v>2.8889999999999998</v>
       </c>
       <c r="D209" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E209" s="59">
         <f t="shared" si="82"/>
@@ -22085,16 +22100,16 @@
       <c r="E210" s="62"/>
       <c r="F210" s="61"/>
       <c r="G210" s="59"/>
-      <c r="H210" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I210" s="71"/>
+      <c r="H210" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I210" s="69"/>
       <c r="J210" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K210" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L210" s="61" t="e">
         <f>#REF!</f>
@@ -22109,13 +22124,13 @@
     </row>
     <row r="211" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B211" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C211" s="47"/>
-      <c r="D211" s="69">
+      <c r="D211" s="70">
         <v>1.3</v>
       </c>
-      <c r="E211" s="69"/>
+      <c r="E211" s="70"/>
       <c r="J211" s="62"/>
       <c r="K211" s="62"/>
       <c r="L211" s="62"/>
@@ -22125,24 +22140,24 @@
       <c r="P211" s="23"/>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B212" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C212" s="70"/>
-      <c r="D212" s="70"/>
-      <c r="E212" s="70"/>
-      <c r="F212" s="70"/>
-      <c r="G212" s="70"/>
+      <c r="B212" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
       <c r="H212" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I212" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J212" s="70"/>
-      <c r="K212" s="70"/>
-      <c r="L212" s="70"/>
-      <c r="M212" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="I212" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
+      <c r="M212" s="72"/>
       <c r="N212" s="24"/>
       <c r="O212" s="24"/>
       <c r="P212" s="26">
@@ -22158,7 +22173,7 @@
         <v>3.3370000000000002</v>
       </c>
       <c r="D213" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E213" s="61"/>
       <c r="F213" s="61"/>
@@ -22599,7 +22614,7 @@
         <v>3.41</v>
       </c>
       <c r="D225" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E225" s="59">
         <f t="shared" si="88"/>
@@ -22658,13 +22673,13 @@
     </row>
     <row r="227" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B227" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C227" s="47"/>
-      <c r="D227" s="69">
+      <c r="D227" s="70">
         <v>1.4</v>
       </c>
-      <c r="E227" s="69"/>
+      <c r="E227" s="70"/>
       <c r="J227" s="62"/>
       <c r="K227" s="62"/>
       <c r="L227" s="62"/>
@@ -22674,24 +22689,24 @@
       <c r="P227" s="23"/>
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B228" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C228" s="70"/>
-      <c r="D228" s="70"/>
-      <c r="E228" s="70"/>
-      <c r="F228" s="70"/>
-      <c r="G228" s="70"/>
+      <c r="B228" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C228" s="72"/>
+      <c r="D228" s="72"/>
+      <c r="E228" s="72"/>
+      <c r="F228" s="72"/>
+      <c r="G228" s="72"/>
       <c r="H228" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I228" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J228" s="70"/>
-      <c r="K228" s="70"/>
-      <c r="L228" s="70"/>
-      <c r="M228" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="I228" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J228" s="72"/>
+      <c r="K228" s="72"/>
+      <c r="L228" s="72"/>
+      <c r="M228" s="72"/>
       <c r="N228" s="24"/>
       <c r="O228" s="24"/>
       <c r="P228" s="26">
@@ -22707,7 +22722,7 @@
         <v>2.944</v>
       </c>
       <c r="D229" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E229" s="61"/>
       <c r="F229" s="61"/>
@@ -23105,7 +23120,7 @@
         <v>2.794</v>
       </c>
       <c r="D240" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E240" s="59">
         <f t="shared" si="94"/>
@@ -23152,16 +23167,16 @@
       <c r="E241" s="62"/>
       <c r="F241" s="61"/>
       <c r="G241" s="59"/>
-      <c r="H241" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="I241" s="71"/>
+      <c r="H241" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I241" s="69"/>
       <c r="J241" s="61" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K241" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L241" s="61" t="e">
         <f>#REF!</f>
@@ -23177,13 +23192,13 @@
     </row>
     <row r="242" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B242" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C242" s="47"/>
-      <c r="D242" s="69">
+      <c r="D242" s="70">
         <v>1.5</v>
       </c>
-      <c r="E242" s="69"/>
+      <c r="E242" s="70"/>
       <c r="J242" s="62"/>
       <c r="K242" s="62"/>
       <c r="L242" s="62"/>
@@ -23193,24 +23208,24 @@
       <c r="P242" s="23"/>
     </row>
     <row r="243" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B243" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C243" s="70"/>
-      <c r="D243" s="70"/>
-      <c r="E243" s="70"/>
-      <c r="F243" s="70"/>
-      <c r="G243" s="70"/>
+      <c r="B243" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C243" s="72"/>
+      <c r="D243" s="72"/>
+      <c r="E243" s="72"/>
+      <c r="F243" s="72"/>
+      <c r="G243" s="72"/>
       <c r="H243" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I243" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J243" s="70"/>
-      <c r="K243" s="70"/>
-      <c r="L243" s="70"/>
-      <c r="M243" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="I243" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J243" s="72"/>
+      <c r="K243" s="72"/>
+      <c r="L243" s="72"/>
+      <c r="M243" s="72"/>
       <c r="N243" s="24"/>
       <c r="O243" s="24"/>
       <c r="P243" s="26" t="e">
@@ -23226,7 +23241,7 @@
         <v>2.8319999999999999</v>
       </c>
       <c r="D244" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E244" s="61"/>
       <c r="F244" s="61"/>
@@ -23719,7 +23734,7 @@
         <v>3.0840000000000001</v>
       </c>
       <c r="D256" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E256" s="59">
         <f t="shared" si="100"/>
@@ -23763,13 +23778,13 @@
     </row>
     <row r="258" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B258" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C258" s="47"/>
-      <c r="D258" s="69">
+      <c r="D258" s="70">
         <v>1.6</v>
       </c>
-      <c r="E258" s="69"/>
+      <c r="E258" s="70"/>
       <c r="J258" s="62"/>
       <c r="K258" s="62"/>
       <c r="L258" s="62"/>
@@ -23779,24 +23794,24 @@
       <c r="P258" s="23"/>
     </row>
     <row r="259" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B259" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C259" s="70"/>
-      <c r="D259" s="70"/>
-      <c r="E259" s="70"/>
-      <c r="F259" s="70"/>
-      <c r="G259" s="70"/>
+      <c r="B259" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C259" s="72"/>
+      <c r="D259" s="72"/>
+      <c r="E259" s="72"/>
+      <c r="F259" s="72"/>
+      <c r="G259" s="72"/>
       <c r="H259" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I259" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J259" s="70"/>
-      <c r="K259" s="70"/>
-      <c r="L259" s="70"/>
-      <c r="M259" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="I259" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J259" s="72"/>
+      <c r="K259" s="72"/>
+      <c r="L259" s="72"/>
+      <c r="M259" s="72"/>
       <c r="N259" s="24"/>
       <c r="O259" s="24"/>
       <c r="P259" s="26" t="e">
@@ -23812,7 +23827,7 @@
         <v>2.6280000000000001</v>
       </c>
       <c r="D260" s="49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E260" s="61"/>
       <c r="F260" s="61"/>
@@ -24279,7 +24294,7 @@
         <v>2.5790000000000002</v>
       </c>
       <c r="D272" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E272" s="59">
         <f t="shared" si="106"/>
@@ -24325,7 +24340,7 @@
       <c r="F273" s="61"/>
       <c r="G273" s="59"/>
       <c r="H273" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I273" s="61"/>
       <c r="J273" s="61" t="e">
@@ -24333,7 +24348,7 @@
         <v>#REF!</v>
       </c>
       <c r="K273" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L273" s="61" t="e">
         <f>#REF!</f>
@@ -24494,13 +24509,13 @@
     </row>
     <row r="282" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B282" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C282" s="47"/>
-      <c r="D282" s="69">
+      <c r="D282" s="70">
         <v>1.7</v>
       </c>
-      <c r="E282" s="69"/>
+      <c r="E282" s="70"/>
       <c r="J282" s="62"/>
       <c r="K282" s="62"/>
       <c r="L282" s="62"/>
@@ -24517,7 +24532,7 @@
         <v>2.0910000000000002</v>
       </c>
       <c r="D283" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E283" s="61"/>
       <c r="F283" s="61"/>
@@ -25085,7 +25100,7 @@
         <v>2.5070000000000001</v>
       </c>
       <c r="D297" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E297" s="59">
         <f t="shared" si="112"/>
@@ -25118,7 +25133,7 @@
       <c r="F298" s="61"/>
       <c r="G298" s="59"/>
       <c r="H298" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I298" s="61"/>
       <c r="J298" s="61" t="e">
@@ -25126,7 +25141,7 @@
         <v>#REF!</v>
       </c>
       <c r="K298" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L298" s="61" t="e">
         <f>#REF!</f>
@@ -25143,13 +25158,13 @@
     </row>
     <row r="299" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B299" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C299" s="47"/>
-      <c r="D299" s="69">
+      <c r="D299" s="70">
         <v>1.8</v>
       </c>
-      <c r="E299" s="69"/>
+      <c r="E299" s="70"/>
       <c r="J299" s="62"/>
       <c r="K299" s="62"/>
       <c r="L299" s="62"/>
@@ -25166,7 +25181,7 @@
         <v>2.2320000000000002</v>
       </c>
       <c r="D300" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E300" s="61"/>
       <c r="F300" s="61"/>
@@ -25646,7 +25661,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="D312" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E312" s="59">
         <f t="shared" si="118"/>
@@ -25686,13 +25701,13 @@
     </row>
     <row r="314" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B314" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C314" s="47"/>
-      <c r="D314" s="69">
+      <c r="D314" s="70">
         <v>1.9</v>
       </c>
-      <c r="E314" s="69"/>
+      <c r="E314" s="70"/>
       <c r="J314" s="62"/>
       <c r="K314" s="62"/>
       <c r="L314" s="62"/>
@@ -25709,7 +25724,7 @@
         <v>2.3580000000000001</v>
       </c>
       <c r="D315" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E315" s="61"/>
       <c r="F315" s="61"/>
@@ -26176,7 +26191,7 @@
         <v>2.4990000000000001</v>
       </c>
       <c r="D327" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E327" s="59">
         <f t="shared" si="124"/>
@@ -26232,13 +26247,13 @@
     </row>
     <row r="329" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B329" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C329" s="47"/>
-      <c r="D329" s="69">
+      <c r="D329" s="70">
         <v>1.93</v>
       </c>
-      <c r="E329" s="69"/>
+      <c r="E329" s="70"/>
       <c r="J329" s="62"/>
       <c r="K329" s="62"/>
       <c r="L329" s="62"/>
@@ -26255,7 +26270,7 @@
         <v>3.4750000000000001</v>
       </c>
       <c r="D330" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E330" s="61"/>
       <c r="F330" s="61"/>
@@ -26823,7 +26838,7 @@
         <v>4.5330000000000004</v>
       </c>
       <c r="D344" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E344" s="59">
         <f t="shared" si="130"/>
@@ -27103,7 +27118,7 @@
       <c r="F356" s="61"/>
       <c r="G356" s="59"/>
       <c r="H356" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I356" s="61"/>
       <c r="J356" s="61">
@@ -27111,7 +27126,7 @@
         <v>56.024500000000003</v>
       </c>
       <c r="K356" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L356" s="61">
         <f>M355</f>
@@ -42361,6 +42376,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="I243:M243"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="I259:M259"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="B228:G228"/>
+    <mergeCell ref="I228:M228"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="I212:M212"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="H168:I168"/>
     <mergeCell ref="D169:E169"/>
     <mergeCell ref="A1:T1"/>
@@ -42377,34 +42420,6 @@
     <mergeCell ref="I43:M43"/>
     <mergeCell ref="H122:I122"/>
     <mergeCell ref="D123:E123"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="I212:M212"/>
-    <mergeCell ref="I243:M243"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="I259:M259"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="B228:G228"/>
-    <mergeCell ref="I228:M228"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D329:E329"/>
-    <mergeCell ref="B243:G243"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -42414,41 +42429,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -42460,8 +42496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42509,7 +42545,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
@@ -42518,7 +42554,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -42536,7 +42572,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3">
         <v>2.1</v>
@@ -42556,7 +42592,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -42574,7 +42610,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="3">
         <v>2.1</v>
@@ -42594,7 +42630,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -42612,7 +42648,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="3">
         <v>2.1</v>
@@ -42632,7 +42668,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -42650,7 +42686,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="3">
         <v>2.1</v>
@@ -42670,7 +42706,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3">
         <v>400</v>
@@ -42688,7 +42724,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="3">
         <v>2.1</v>
@@ -42708,7 +42744,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3">
         <v>500</v>
@@ -42726,7 +42762,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="3">
         <v>2.1</v>
@@ -42746,7 +42782,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3">
         <v>600</v>
@@ -42764,7 +42800,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="3">
         <v>2.1</v>
@@ -42784,7 +42820,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="32">
         <v>700</v>
@@ -42802,7 +42838,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="3">
         <v>2.1</v>
@@ -42822,7 +42858,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="32">
         <v>800</v>
@@ -42840,7 +42876,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" s="3">
         <v>2.1</v>
@@ -42860,7 +42896,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="32">
         <v>900</v>
@@ -42878,7 +42914,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="3">
         <v>2.1</v>
@@ -42898,7 +42934,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="32">
         <v>1000</v>
@@ -42916,7 +42952,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="3">
         <v>2.1</v>
@@ -42936,7 +42972,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="32">
         <v>1100</v>
@@ -42954,7 +42990,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3">
         <v>2.1</v>
@@ -42974,7 +43010,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="34">
         <v>1300</v>
@@ -42992,7 +43028,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="3">
         <v>2.1</v>
@@ -43012,7 +43048,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="34">
         <v>1400</v>
@@ -43030,7 +43066,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="3">
         <v>2.1</v>
@@ -43050,7 +43086,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2">
         <v>1500</v>
@@ -43068,7 +43104,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="3">
         <v>2.1</v>
@@ -43088,7 +43124,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2">
         <v>1600</v>
@@ -43106,7 +43142,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="3">
         <v>2.1</v>
@@ -43126,7 +43162,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2">
         <v>1700</v>
@@ -43144,7 +43180,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="3">
         <v>2.1</v>
@@ -43164,7 +43200,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2">
         <v>1800</v>
@@ -43182,7 +43218,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3">
         <v>2.1</v>
@@ -43202,7 +43238,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2">
         <v>1900</v>
@@ -43220,7 +43256,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="3">
         <v>2.1</v>
@@ -43240,7 +43276,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2">
         <v>1930</v>
@@ -43258,7 +43294,7 @@
         <v>25</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3">
         <v>2.1</v>
@@ -43594,7 +43630,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43620,7 +43656,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>12</v>
@@ -43637,13 +43673,13 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.33</v>
+        <v>-1.2</v>
       </c>
       <c r="C2" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -43652,10 +43688,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>26</v>
@@ -43684,18 +43720,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43703,7 +43739,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43711,7 +43747,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43719,7 +43755,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43727,15 +43763,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43743,7 +43779,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -43751,7 +43787,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -43759,7 +43795,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43767,7 +43803,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -43775,7 +43811,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43783,7 +43819,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -43791,7 +43827,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -43799,7 +43835,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -43807,7 +43843,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43815,7 +43851,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43823,7 +43859,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43831,7 +43867,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43839,7 +43875,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43847,7 +43883,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43855,7 +43891,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -43863,7 +43899,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -43871,7 +43907,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -43884,7 +43920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -43897,82 +43933,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -44009,18 +44045,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44028,7 +44064,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44036,7 +44072,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44044,7 +44080,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44052,7 +44088,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -44060,7 +44096,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -44068,7 +44104,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -44076,7 +44112,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44084,10 +44120,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -44095,7 +44131,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44103,7 +44139,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -44111,7 +44147,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44119,7 +44155,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -44127,31 +44163,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44159,7 +44195,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44167,7 +44203,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -44175,15 +44211,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44191,7 +44227,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -44199,7 +44235,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44207,7 +44243,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44215,7 +44251,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -44223,7 +44259,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44231,7 +44267,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
